--- a/samples/product_details.xlsx
+++ b/samples/product_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\Documents\ps_3\backend\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8589D0-1CFB-451B-B3D2-C7792AF15559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2074DAE9-1F44-4A3A-BF32-2B6C4CBF5F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{915C0CB2-C480-4996-8071-EEE10D355580}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/samples/product_details.xlsx
+++ b/samples/product_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\Documents\ps_3\backend\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2074DAE9-1F44-4A3A-BF32-2B6C4CBF5F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E26B013-D7EF-47EF-A3AD-52A11A0F8376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{915C0CB2-C480-4996-8071-EEE10D355580}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>SKU_103</t>
   </si>
@@ -42,80 +42,386 @@
     <t>SKU_106</t>
   </si>
   <si>
+    <t>SKU_129</t>
+  </si>
+  <si>
+    <t>SKU_131</t>
+  </si>
+  <si>
+    <t>SKU_148</t>
+  </si>
+  <si>
+    <t>SKU_28</t>
+  </si>
+  <si>
+    <t>SKU_29</t>
+  </si>
+  <si>
+    <t>SKU_33</t>
+  </si>
+  <si>
+    <t>SKU_43</t>
+  </si>
+  <si>
+    <t>SKU_47</t>
+  </si>
+  <si>
+    <t>SKU_65</t>
+  </si>
+  <si>
+    <t>SKU_79</t>
+  </si>
+  <si>
+    <t>SKU_8</t>
+  </si>
+  <si>
+    <t>SKU_80</t>
+  </si>
+  <si>
+    <t>SKU_86</t>
+  </si>
+  <si>
+    <t>SKU_88</t>
+  </si>
+  <si>
+    <t>SKU_90</t>
+  </si>
+  <si>
+    <t>skuID</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>deadWeight</t>
+  </si>
+  <si>
+    <t>SKU_144</t>
+  </si>
+  <si>
+    <t>SKU_31</t>
+  </si>
+  <si>
+    <t>SKU_113</t>
+  </si>
+  <si>
+    <t>SKU_23</t>
+  </si>
+  <si>
+    <t>SKU_38</t>
+  </si>
+  <si>
+    <t>SKU_109</t>
+  </si>
+  <si>
+    <t>SKU_141</t>
+  </si>
+  <si>
+    <t>SKU_134</t>
+  </si>
+  <si>
+    <t>SKU_58</t>
+  </si>
+  <si>
+    <t>SKU_16</t>
+  </si>
+  <si>
+    <t>SKU_9</t>
+  </si>
+  <si>
+    <t>SKU_59</t>
+  </si>
+  <si>
+    <t>SKU_44</t>
+  </si>
+  <si>
+    <t>SKU_45</t>
+  </si>
+  <si>
+    <t>SKU_92</t>
+  </si>
+  <si>
+    <t>SKU_13</t>
+  </si>
+  <si>
+    <t>SKU_98</t>
+  </si>
+  <si>
+    <t>SKU_74</t>
+  </si>
+  <si>
+    <t>SKU_138</t>
+  </si>
+  <si>
+    <t>SKU_96</t>
+  </si>
+  <si>
+    <t>SKU_56</t>
+  </si>
+  <si>
+    <t>SKU_100</t>
+  </si>
+  <si>
+    <t>SKU_95</t>
+  </si>
+  <si>
+    <t>SKU_22</t>
+  </si>
+  <si>
+    <t>SKU_51</t>
+  </si>
+  <si>
+    <t>SKU_40</t>
+  </si>
+  <si>
+    <t>SKU_125</t>
+  </si>
+  <si>
+    <t>SKU_7</t>
+  </si>
+  <si>
+    <t>SKU_147</t>
+  </si>
+  <si>
+    <t>SKU_137</t>
+  </si>
+  <si>
+    <t>SKU_21</t>
+  </si>
+  <si>
+    <t>SKU_15</t>
+  </si>
+  <si>
+    <t>SKU_83</t>
+  </si>
+  <si>
+    <t>SKU_143</t>
+  </si>
+  <si>
+    <t>SKU_117</t>
+  </si>
+  <si>
+    <t>SKU_77</t>
+  </si>
+  <si>
+    <t>SKU_123</t>
+  </si>
+  <si>
+    <t>SKU_91</t>
+  </si>
+  <si>
+    <t>SKU_18</t>
+  </si>
+  <si>
+    <t>SKU_130</t>
+  </si>
+  <si>
+    <t>SKU_136</t>
+  </si>
+  <si>
+    <t>SKU_70</t>
+  </si>
+  <si>
+    <t>SKU_93</t>
+  </si>
+  <si>
+    <t>SKU_76</t>
+  </si>
+  <si>
+    <t>SKU_82</t>
+  </si>
+  <si>
+    <t>SKU_142</t>
+  </si>
+  <si>
+    <t>SKU_139</t>
+  </si>
+  <si>
+    <t>SKU_89</t>
+  </si>
+  <si>
+    <t>SKU_42</t>
+  </si>
+  <si>
+    <t>SKU_81</t>
+  </si>
+  <si>
+    <t>SKU_50</t>
+  </si>
+  <si>
+    <t>SKU_53</t>
+  </si>
+  <si>
+    <t>SKU_41</t>
+  </si>
+  <si>
+    <t>SKU_119</t>
+  </si>
+  <si>
+    <t>SKU_48</t>
+  </si>
+  <si>
+    <t>SKU_19</t>
+  </si>
+  <si>
+    <t>SKU_110</t>
+  </si>
+  <si>
+    <t>SKU_55</t>
+  </si>
+  <si>
+    <t>SKU_85</t>
+  </si>
+  <si>
+    <t>SKU_2</t>
+  </si>
+  <si>
+    <t>SKU_20</t>
+  </si>
+  <si>
+    <t>SKU_69</t>
+  </si>
+  <si>
+    <t>SKU_73</t>
+  </si>
+  <si>
+    <t>SKU_34</t>
+  </si>
+  <si>
+    <t>SKU_10</t>
+  </si>
+  <si>
+    <t>SKU_64</t>
+  </si>
+  <si>
+    <t>SKU_146</t>
+  </si>
+  <si>
+    <t>SKU_27</t>
+  </si>
+  <si>
+    <t>SKU_107</t>
+  </si>
+  <si>
+    <t>SKU_116</t>
+  </si>
+  <si>
+    <t>SKU_114</t>
+  </si>
+  <si>
+    <t>SKU_1</t>
+  </si>
+  <si>
+    <t>SKU_124</t>
+  </si>
+  <si>
+    <t>SKU_127</t>
+  </si>
+  <si>
+    <t>SKU_17</t>
+  </si>
+  <si>
+    <t>SKU_72</t>
+  </si>
+  <si>
+    <t>SKU_121</t>
+  </si>
+  <si>
+    <t>SKU_75</t>
+  </si>
+  <si>
+    <t>SKU_115</t>
+  </si>
+  <si>
+    <t>SKU_52</t>
+  </si>
+  <si>
+    <t>SKU_6</t>
+  </si>
+  <si>
+    <t>SKU_61</t>
+  </si>
+  <si>
+    <t>SKU_104</t>
+  </si>
+  <si>
+    <t>SKU_12</t>
+  </si>
+  <si>
+    <t>SKU_67</t>
+  </si>
+  <si>
+    <t>SKU_132</t>
+  </si>
+  <si>
+    <t>SKU_150</t>
+  </si>
+  <si>
+    <t>SKU_97</t>
+  </si>
+  <si>
+    <t>SKU_36</t>
+  </si>
+  <si>
+    <t>SKU_24</t>
+  </si>
+  <si>
+    <t>SKU_68</t>
+  </si>
+  <si>
+    <t>SKU_66</t>
+  </si>
+  <si>
+    <t>SKU_140</t>
+  </si>
+  <si>
+    <t>SKU_120</t>
+  </si>
+  <si>
+    <t>SKU_112</t>
+  </si>
+  <si>
+    <t>SKU_62</t>
+  </si>
+  <si>
+    <t>SKU_102</t>
+  </si>
+  <si>
+    <t>SKU_63</t>
+  </si>
+  <si>
+    <t>SKU_149</t>
+  </si>
+  <si>
+    <t>SKU_3</t>
+  </si>
+  <si>
+    <t>SKU_25</t>
+  </si>
+  <si>
+    <t>SKU_78</t>
+  </si>
+  <si>
+    <t>SKU_5</t>
+  </si>
+  <si>
+    <t>SKU_87</t>
+  </si>
+  <si>
+    <t>SKU_39</t>
+  </si>
+  <si>
+    <t>SKU_118</t>
+  </si>
+  <si>
     <t>SKU_11</t>
-  </si>
-  <si>
-    <t>SKU_118</t>
-  </si>
-  <si>
-    <t>SKU_129</t>
-  </si>
-  <si>
-    <t>SKU_131</t>
-  </si>
-  <si>
-    <t>SKU_148</t>
-  </si>
-  <si>
-    <t>SKU_28</t>
-  </si>
-  <si>
-    <t>SKU_29</t>
-  </si>
-  <si>
-    <t>SKU_33</t>
-  </si>
-  <si>
-    <t>SKU_39</t>
-  </si>
-  <si>
-    <t>SKU_43</t>
-  </si>
-  <si>
-    <t>SKU_46</t>
-  </si>
-  <si>
-    <t>SKU_47</t>
-  </si>
-  <si>
-    <t>SKU_54</t>
-  </si>
-  <si>
-    <t>SKU_65</t>
-  </si>
-  <si>
-    <t>SKU_79</t>
-  </si>
-  <si>
-    <t>SKU_8</t>
-  </si>
-  <si>
-    <t>SKU_80</t>
-  </si>
-  <si>
-    <t>SKU_86</t>
-  </si>
-  <si>
-    <t>SKU_88</t>
-  </si>
-  <si>
-    <t>SKU_90</t>
-  </si>
-  <si>
-    <t>skuID</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>deadWeight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,16 +429,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,12 +458,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +806,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,272 +814,1399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1D8833-0C5F-4A4D-89B7-9C076A4602EA}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.82</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9.48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>28778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>26183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C11" s="2">
+        <v>26183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="C12" s="2">
+        <v>27521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6.13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B14" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.68</v>
+      </c>
+      <c r="C15" s="2">
+        <v>17628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C17" s="2">
+        <v>25812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9.59</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9.59</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="C20" s="2">
+        <v>29136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8.32</v>
+      </c>
+      <c r="C22" s="2">
+        <v>27861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="C23" s="2">
+        <v>17509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8770</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="C27" s="2">
+        <v>19972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="C28" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4.93</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6.48</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="C33" s="2">
+        <v>26315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5.93</v>
+      </c>
+      <c r="C35" s="2">
+        <v>25799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6.65</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2">
+        <v>8.49</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9508</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6.57</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="C39" s="2">
+        <v>16310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="C40" s="2">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="C41" s="2">
+        <v>29071</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="C42" s="2">
+        <v>26080</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="C43" s="2">
+        <v>21277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="C44" s="2">
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C46" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5.31</v>
+      </c>
+      <c r="C47" s="2">
+        <v>22166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>8889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="C49" s="2">
+        <v>22596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5.57</v>
+      </c>
+      <c r="C50" s="2">
+        <v>27056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2">
+        <v>6.57</v>
+      </c>
+      <c r="C51" s="2">
+        <v>17036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3.44</v>
+      </c>
+      <c r="C52" s="2">
+        <v>11988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="2">
+        <v>8.94</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="C56" s="2">
+        <v>23788</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="C57" s="2">
+        <v>23027</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C58" s="2">
+        <v>28713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="C59" s="2">
+        <v>30771</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="C60" s="2">
+        <v>24434</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="C61" s="2">
+        <v>15237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="C62" s="2">
+        <v>31329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C63" s="2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="2">
+        <v>7.59</v>
+      </c>
+      <c r="C64" s="2">
+        <v>16522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="C65" s="2">
+        <v>21724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C66" s="2">
+        <v>24799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5.58</v>
+      </c>
+      <c r="C67" s="2">
+        <v>7775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.11</v>
-      </c>
-      <c r="C2">
-        <v>1.5164751900000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>14.29</v>
-      </c>
-      <c r="C3">
-        <v>14.10351738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>17.510000000000002</v>
-      </c>
-      <c r="C4">
-        <v>12.41870393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>22.1</v>
-      </c>
-      <c r="C5">
-        <v>9.059623E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="C6">
-        <v>27.38393078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>14.27</v>
-      </c>
-      <c r="C7">
-        <v>29.427812330000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>23.47</v>
-      </c>
-      <c r="C8">
-        <v>13.89147011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10.31</v>
-      </c>
-      <c r="C9">
-        <v>7.4869903500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B68" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="C68" s="2">
+        <v>22678</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="C69" s="2">
+        <v>22678</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="C71" s="2">
+        <v>13767</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="2">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="C72" s="2">
+        <v>11782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.93</v>
-      </c>
-      <c r="C10">
-        <v>12.547613289999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B73" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="C73" s="2">
+        <v>13079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="C74" s="2">
+        <v>18393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>29.46</v>
-      </c>
-      <c r="C11">
-        <v>28.700278919999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B76" s="2">
+        <v>4.97</v>
+      </c>
+      <c r="C76" s="2">
+        <v>7178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="C77" s="2">
+        <v>17359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="2">
+        <v>9.76</v>
+      </c>
+      <c r="C78" s="2">
+        <v>25641</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="C79" s="2">
+        <v>28923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="C80" s="2">
+        <v>15123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C81" s="2">
+        <v>17890</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="C82" s="2">
+        <v>31107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C84" s="2">
+        <v>26766</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C85" s="2">
+        <v>16053</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="2">
+        <v>5.36</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3.93</v>
+      </c>
+      <c r="C87" s="2">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4.76</v>
+      </c>
+      <c r="C88" s="2">
+        <v>25179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="C89" s="2">
+        <v>9414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="2">
+        <v>9.17</v>
+      </c>
+      <c r="C90" s="2">
+        <v>19469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="C91" s="2">
+        <v>30941</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>22.06</v>
-      </c>
-      <c r="C12">
-        <v>0.34764672000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B92" s="2">
+        <v>4.78</v>
+      </c>
+      <c r="C92" s="2">
+        <v>28328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="2">
+        <v>5.86</v>
+      </c>
+      <c r="C93" s="2">
+        <v>7484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="C94" s="2">
+        <v>11193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="2">
+        <v>7.76</v>
+      </c>
+      <c r="C95" s="2">
+        <v>28463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C96" s="2">
+        <v>14032</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="C97" s="2">
+        <v>25555</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="C98" s="2">
+        <v>11245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="2">
+        <v>8.66</v>
+      </c>
+      <c r="C99" s="2">
+        <v>25739</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="C100" s="2">
+        <v>24826</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="2">
+        <v>7.17</v>
+      </c>
+      <c r="C101" s="2">
+        <v>6818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="C102" s="2">
+        <v>28926</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="C103" s="2">
+        <v>25369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C104" s="2">
+        <v>20117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="C105" s="2">
+        <v>21706</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>25.63</v>
-      </c>
-      <c r="C13">
-        <v>22.513147990000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B106" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>22.97</v>
-      </c>
-      <c r="C14">
-        <v>25.95913543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B107" s="2">
+        <v>7.65</v>
+      </c>
+      <c r="C107" s="2">
+        <v>22546</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.32</v>
-      </c>
-      <c r="C15">
-        <v>13.88264723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B108" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="C108" s="2">
+        <v>20696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" s="2">
+        <v>4.63</v>
+      </c>
+      <c r="C109" s="2">
+        <v>28230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>11572</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="2">
+        <v>8.76</v>
+      </c>
+      <c r="C111" s="2">
+        <v>24249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="2">
+        <v>6.34</v>
+      </c>
+      <c r="C112" s="2">
+        <v>21503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.84</v>
-      </c>
-      <c r="C16">
-        <v>10.805358719999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B113" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="C113" s="2">
+        <v>10866</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="C114" s="2">
+        <v>24966</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>26.69</v>
-      </c>
-      <c r="C17">
-        <v>12.802686019999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B115" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="C115" s="2">
+        <v>25166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="C116" s="2">
+        <v>29312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>6.23</v>
-      </c>
-      <c r="C18">
-        <v>19.217009350000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>6.47</v>
-      </c>
-      <c r="C19">
-        <v>14.998976650000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>4.08</v>
-      </c>
-      <c r="C20">
-        <v>16.717523799999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>15.76</v>
-      </c>
-      <c r="C21">
-        <v>23.073124810000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>28.88</v>
-      </c>
-      <c r="C22">
-        <v>19.294759300000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>24.49</v>
-      </c>
-      <c r="C23">
-        <v>0.99341587000000009</v>
+      <c r="B118" s="2">
+        <v>7.52</v>
+      </c>
+      <c r="C118" s="2">
+        <v>25691</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C119" s="2">
+        <v>30777</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C120" s="2">
+        <v>22835</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>22610</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C122" s="2">
+        <v>28480</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C123" s="2">
+        <v>12529</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="C124" s="2">
+        <v>28972</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="C125" s="2">
+        <v>28350</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">
+    <sortCondition ref="A48:A125"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>